--- a/medicine/Sexualité et sexologie/MARTIJN/MARTIJN.xlsx
+++ b/medicine/Sexualité et sexologie/MARTIJN/MARTIJN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vereniging MARTIJN était une association pédophile néerlandaise, qui avait pour objet de faire accepter les relations sexuelles entre adultes et enfants. Fondée à Hoogeveen en 1982[1], il s'agissait de la plus ancienne association pédophile européenne, et de la plus ancienne au monde après la NAMBLA. La justice néerlandaise a interdit le groupe en juin 2012, avant de revenir sur cette interdiction en avril 2013, puis de la confirmer le 19 avril 2014, soit près d'un an plus tard[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vereniging MARTIJN était une association pédophile néerlandaise, qui avait pour objet de faire accepter les relations sexuelles entre adultes et enfants. Fondée à Hoogeveen en 1982, il s'agissait de la plus ancienne association pédophile européenne, et de la plus ancienne au monde après la NAMBLA. La justice néerlandaise a interdit le groupe en juin 2012, avant de revenir sur cette interdiction en avril 2013, puis de la confirmer le 19 avril 2014, soit près d'un an plus tard.
 </t>
         </is>
       </c>
@@ -511,16 +523,16 @@
           <t>Les buts de l'association</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association MARTIJN défendait l'idée de la possibilité d'un plaisir réciproque dans les relations sexuelles entre adultes et enfants, contre ce qu'elle nomme le « dogme » qui veut que « les enfants et les jeunes soient blessés par les relations amicales et intimes avec des personnes plus âgées »[1]. Les quatre facteurs à prendre en compte dans toute relation de ce type étaient, selon elle :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association MARTIJN défendait l'idée de la possibilité d'un plaisir réciproque dans les relations sexuelles entre adultes et enfants, contre ce qu'elle nomme le « dogme » qui veut que « les enfants et les jeunes soient blessés par les relations amicales et intimes avec des personnes plus âgées ». Les quatre facteurs à prendre en compte dans toute relation de ce type étaient, selon elle :
 Consentement de l'enfant et de l'adulte.
 Ouverture vers les parents de l'enfant.
 Liberté pour l'enfant d'interrompre la relation à n'importe quel moment.
-Relation en harmonie avec le développement de l'enfant[1].
-Ces relations sexuelles devraient avoir lieu dans une « société libre et humaine », où seraient bannies « violence, force et domination dans les relations » et où régneraient « l'honnêteté, l'ouverture d'esprit, le plaisir et l'amour »[1]. MARTIJN est donc un mouvement très ancré dans les idéaux utopiques de la révolution sexuelle : la liberté par l'amour, contre l'autorité[3].
-Moyens d'action
-L'association éditait un trimestriel en néerlandais, OK Magazine (Martijn jusqu'en 1986[4]), qui publiait des études sur la pédophilie, des interviews de personnalité à ce sujet, des fictions et des poèmes (en grand nombre) et divers articles sur l'adolescence et l'enfance. Elle proposait également un site internet complet et un forum de discussion.
+Relation en harmonie avec le développement de l'enfant.
+Ces relations sexuelles devraient avoir lieu dans une « société libre et humaine », où seraient bannies « violence, force et domination dans les relations » et où régneraient « l'honnêteté, l'ouverture d'esprit, le plaisir et l'amour ». MARTIJN est donc un mouvement très ancré dans les idéaux utopiques de la révolution sexuelle : la liberté par l'amour, contre l'autorité.
 </t>
         </is>
       </c>
@@ -546,16 +558,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Les buts de l'association</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Moyens d'action</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association éditait un trimestriel en néerlandais, OK Magazine (Martijn jusqu'en 1986), qui publiait des études sur la pédophilie, des interviews de personnalité à ce sujet, des fictions et des poèmes (en grand nombre) et divers articles sur l'adolescence et l'enfance. Elle proposait également un site internet complet et un forum de discussion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MARTIJN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MARTIJN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Polémiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MARTIJN fit avec les années l'objet d'une réprobation croissante, toute complaisance envers l'apologie de la pédophilie ayant disparu avec le temps. L'association a perdu le soutien de la communauté homosexuelle en 1994, lorsqu'elle a été exclue de l'ILGA[5].
-En 2003, des membres des partis de droite nationalistes Nieuw Rechts et New National Party (NNP) créent une organisation, appelée Stop MARTIJN, dont le but est d'empêcher MARTIJN de fonctionner à visage découvert[6].
-Le 27 juin 2012, la justice néerlandaise a ordonné la dissolution de l'association MARTIJN[7],[8].
-Le 2 avril 2013, la cour d'appel néerlandaise a annulé l'interdiction et la dissolution de l'association, jugeant que si « les travaux de l'association sont contraires à l'ordre public », il n'y a cependant pas de « menaces de dislocation de la société », condition pour qu'une organisation soit interdite aux Pays-Bas[9] ; la cour d'appel estime en effet que la société est « suffisamment capable de se défendre »[10].
-Le 19 avril 2014, la Hoge Raad, cour suprême des Pays-Bas, confirme le jugement de 2012, estimant que l'intégrité de l'enfant prime sur le principe de liberté d'expression[2]. La cour juge qu'étant donné que MARTIJN « banalise les dangers des contacts sexuels avec de jeunes enfants », « il est nécessaire d’interdire et dissoudre l’association au nom de la protection de la santé, des droits et des libertés des enfants »[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARTIJN fit avec les années l'objet d'une réprobation croissante, toute complaisance envers l'apologie de la pédophilie ayant disparu avec le temps. L'association a perdu le soutien de la communauté homosexuelle en 1994, lorsqu'elle a été exclue de l'ILGA.
+En 2003, des membres des partis de droite nationalistes Nieuw Rechts et New National Party (NNP) créent une organisation, appelée Stop MARTIJN, dont le but est d'empêcher MARTIJN de fonctionner à visage découvert.
+Le 27 juin 2012, la justice néerlandaise a ordonné la dissolution de l'association MARTIJN,.
+Le 2 avril 2013, la cour d'appel néerlandaise a annulé l'interdiction et la dissolution de l'association, jugeant que si « les travaux de l'association sont contraires à l'ordre public », il n'y a cependant pas de « menaces de dislocation de la société », condition pour qu'une organisation soit interdite aux Pays-Bas ; la cour d'appel estime en effet que la société est « suffisamment capable de se défendre ».
+Le 19 avril 2014, la Hoge Raad, cour suprême des Pays-Bas, confirme le jugement de 2012, estimant que l'intégrité de l'enfant prime sur le principe de liberté d'expression. La cour juge qu'étant donné que MARTIJN « banalise les dangers des contacts sexuels avec de jeunes enfants », « il est nécessaire d’interdire et dissoudre l’association au nom de la protection de la santé, des droits et des libertés des enfants ».
 </t>
         </is>
       </c>
